--- a/271025_Results_Med/output/m2/27102025_mod2_by_ses.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_ses.xlsx
@@ -1632,22 +1632,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>45 (80.4%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>176 (97.8%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>156 (96.9%)</t>
         </is>
       </c>
       <c r="G37">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>45 (80.4%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>176 (97.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>156 (96.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G38">
@@ -1842,22 +1842,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>36 (64.3%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>148 (81.8%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2 (1.2%)</t>
+          <t>128 (79.5%)</t>
         </is>
       </c>
       <c r="G43">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6 (3.7%)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="G44">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>36 (64.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>148 (81.8%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>128 (79.5%)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="G45">

--- a/271025_Results_Med/output/m2/27102025_mod2_by_ses.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_ses.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="34">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="36">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="37">
@@ -1632,26 +1632,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45 (80.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>176 (97.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>156 (96.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="38">
@@ -1667,26 +1667,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>45 (80.4%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>176 (97.2%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>156 (96.9%)</t>
         </is>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="39">
@@ -1702,61 +1702,61 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10 (17.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12 (6.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11 (6.8%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.0401</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="41">
@@ -1772,22 +1772,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>10 (17.9%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>12 (6.6%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8 (5.0%)</t>
+          <t>11 (6.8%)</t>
         </is>
       </c>
       <c r="G41">
@@ -1807,22 +1807,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5 (8.9%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 (3.3%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5 (3.1%)</t>
+          <t>8 (5.0%)</t>
         </is>
       </c>
       <c r="G42">
@@ -1842,22 +1842,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>36 (64.3%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>148 (81.8%)</t>
+          <t>6 (3.3%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>128 (79.5%)</t>
+          <t>5 (3.1%)</t>
         </is>
       </c>
       <c r="G43">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>36 (64.3%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>148 (81.8%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2 (1.2%)</t>
+          <t>128 (79.5%)</t>
         </is>
       </c>
       <c r="G44">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6 (3.7%)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="G45">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="G46">
@@ -1972,33 +1972,36 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>56 (100.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>181 (100.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>161 (100.0%)</t>
-        </is>
+          <t>1 (0.6%)</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>0.0401</v>
       </c>
     </row>
     <row r="48">
@@ -2824,21 +2827,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4 (7.3%)</t>
+          <t>4 (7.1%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>27 (15.2%)</t>
+          <t>27 (14.9%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>21 (13.1%)</t>
+          <t>21 (13.0%)</t>
         </is>
       </c>
       <c r="G71">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="72">
@@ -2854,7 +2857,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2873,7 +2876,7 @@
         </is>
       </c>
       <c r="G72">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="73">
@@ -2889,26 +2892,26 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14 (7.9%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>14 (8.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G73">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="74">
@@ -2924,7 +2927,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2934,16 +2937,16 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>1 (0.6%)</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2 (1.2%)</t>
-        </is>
-      </c>
       <c r="G74">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="75">
@@ -2959,26 +2962,26 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8 (14.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>42 (23.6%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>40 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G75">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="76">
@@ -2994,26 +2997,26 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>38 (69.1%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>81 (45.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>75 (46.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G76">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="77">
@@ -3029,235 +3032,375 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10 (5.6%)</t>
+          <t>14 (7.7%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>14 (8.7%)</t>
         </is>
       </c>
       <c r="G77">
-        <v>0.2718</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>39.0 (31.8–49.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>41.0 (26.0–56.0)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>48.0 (31.0–61.0)</t>
+          <t>2 (1.2%)</t>
         </is>
       </c>
       <c r="G78">
-        <v>0.0135</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>35.0 (28.8–40.0)</t>
+          <t>8 (14.3%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25.0 (15.0–40.0)</t>
+          <t>42 (23.2%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40 (24.8%)</t>
         </is>
       </c>
       <c r="G79">
-        <v>0.001</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–11.2)</t>
+          <t>38 (67.9%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>81 (44.8%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>75 (46.6%)</t>
         </is>
       </c>
       <c r="G80">
-        <v>0.4112</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–11.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>10 (5.5%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>6 (3.7%)</t>
         </is>
       </c>
       <c r="G81">
-        <v>0.8794</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>22.5 (20.0–35.0)</t>
+          <t>39.0 (31.8–49.0)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–41.2)</t>
+          <t>41.0 (26.0–56.0)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>27.5 (15.0–40.0)</t>
+          <t>48.0 (31.0–61.0)</t>
         </is>
       </c>
       <c r="G82">
-        <v>0.1903</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–11.2)</t>
+          <t>35.0 (28.8–40.0)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>25.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="G83">
-        <v>0.9721</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="G84">
+        <v>0.4112</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="G85">
+        <v>0.8794</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>22.5 (20.0–35.0)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–41.2)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>27.5 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="G86">
+        <v>0.1903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–11.2)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–14.2)</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>0.9721</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>10.0 (10.0–10.0)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>20.0 (15.0–45.0)</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>20.0 (8.8–20.0)</t>
         </is>
       </c>
-      <c r="G84">
+      <c r="G88">
         <v>0.4183</v>
       </c>
     </row>
